--- a/dataanalysis/data/predictions/1400/09161428_1431.xlsx
+++ b/dataanalysis/data/predictions/1400/09161428_1431.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="195">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-16</t>
   </si>
   <si>
@@ -596,12 +599,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -959,13 +956,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,19 +1065,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.73</v>
@@ -1098,7 +1098,7 @@
         <v>163622.12</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -1140,10 +1140,25 @@
         <v>-1.46</v>
       </c>
       <c r="X2" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y2">
+        <v>-1.25</v>
+      </c>
+      <c r="Z2">
+        <v>15.28</v>
+      </c>
+      <c r="AA2">
+        <v>1.87</v>
       </c>
       <c r="AC2" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1151,22 +1166,25 @@
       <c r="AG2">
         <v>0.6043992042541504</v>
       </c>
-      <c r="AH2" t="s">
-        <v>194</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1184,7 +1202,7 @@
         <v>444976.49</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1226,10 +1244,25 @@
         <v>2.4</v>
       </c>
       <c r="X3" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y3">
+        <v>5.9</v>
+      </c>
+      <c r="Z3">
+        <v>73</v>
+      </c>
+      <c r="AA3">
+        <v>12.45</v>
       </c>
       <c r="AC3" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1237,22 +1270,25 @@
       <c r="AG3">
         <v>9.042089462280273</v>
       </c>
-      <c r="AH3" t="s">
-        <v>194</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300014</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.15</v>
@@ -1270,7 +1306,7 @@
         <v>604808.09</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1311,8 +1347,23 @@
       <c r="W4">
         <v>-0.5</v>
       </c>
+      <c r="Y4">
+        <v>0.57</v>
+      </c>
+      <c r="Z4">
+        <v>75.64</v>
+      </c>
+      <c r="AA4">
+        <v>3.52</v>
+      </c>
       <c r="AC4" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1320,22 +1371,25 @@
       <c r="AG4">
         <v>22.7457275390625</v>
       </c>
-      <c r="AH4" t="s">
-        <v>194</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300043</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>15.62</v>
@@ -1353,7 +1407,7 @@
         <v>287080.04</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1395,10 +1449,25 @@
         <v>-0.67</v>
       </c>
       <c r="X5" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y5">
+        <v>-0.26</v>
+      </c>
+      <c r="Z5">
+        <v>8.19</v>
+      </c>
+      <c r="AA5">
+        <v>6.36</v>
       </c>
       <c r="AC5" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1406,22 +1475,25 @@
       <c r="AG5">
         <v>-3.124526262283325</v>
       </c>
-      <c r="AH5" t="s">
-        <v>194</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300049</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.37</v>
@@ -1439,7 +1511,7 @@
         <v>190919.78</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1481,10 +1553,25 @@
         <v>0.31</v>
       </c>
       <c r="X6" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y6">
+        <v>2.36</v>
+      </c>
+      <c r="Z6">
+        <v>89.19</v>
+      </c>
+      <c r="AA6">
+        <v>4.92</v>
       </c>
       <c r="AC6" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1492,22 +1579,25 @@
       <c r="AG6">
         <v>1.509767055511475</v>
       </c>
-      <c r="AH6" t="s">
-        <v>194</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300085</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>5.65</v>
@@ -1525,7 +1615,7 @@
         <v>449816.83</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1566,8 +1656,23 @@
       <c r="W7">
         <v>0.97</v>
       </c>
+      <c r="Y7">
+        <v>2.82</v>
+      </c>
+      <c r="Z7">
+        <v>61.87</v>
+      </c>
+      <c r="AA7">
+        <v>7.79</v>
+      </c>
       <c r="AC7" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1575,22 +1680,25 @@
       <c r="AG7">
         <v>-23.47594451904297</v>
       </c>
-      <c r="AH7" t="s">
-        <v>194</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300139</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.78</v>
@@ -1608,7 +1716,7 @@
         <v>153209.57</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1650,10 +1758,25 @@
         <v>-0.48</v>
       </c>
       <c r="X8" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y8">
+        <v>-3.2</v>
+      </c>
+      <c r="Z8">
+        <v>28.1</v>
+      </c>
+      <c r="AA8">
+        <v>4.73</v>
       </c>
       <c r="AC8" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1661,22 +1784,25 @@
       <c r="AG8">
         <v>-0.5254934430122375</v>
       </c>
-      <c r="AH8" t="s">
-        <v>194</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300217</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>2.15</v>
@@ -1694,7 +1820,7 @@
         <v>52908.84</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1735,8 +1861,23 @@
       <c r="W9">
         <v>-0.01</v>
       </c>
+      <c r="Y9">
+        <v>-0.16</v>
+      </c>
+      <c r="Z9">
+        <v>6.58</v>
+      </c>
+      <c r="AA9">
+        <v>6.65</v>
+      </c>
       <c r="AC9" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1744,22 +1885,25 @@
       <c r="AG9">
         <v>2.414985418319702</v>
       </c>
-      <c r="AH9" t="s">
-        <v>194</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300237</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-5.03</v>
@@ -1777,7 +1921,7 @@
         <v>80435.44</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K10">
         <v>14</v>
@@ -1819,10 +1963,25 @@
         <v>-0.54</v>
       </c>
       <c r="X10" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y10">
+        <v>0.53</v>
+      </c>
+      <c r="Z10">
+        <v>3.9</v>
+      </c>
+      <c r="AA10">
+        <v>3.17</v>
       </c>
       <c r="AC10" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1830,22 +1989,25 @@
       <c r="AG10">
         <v>-0.8475063443183899</v>
       </c>
-      <c r="AH10" t="s">
-        <v>194</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300252</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>4.38</v>
@@ -1863,7 +2025,7 @@
         <v>238412.13</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1905,10 +2067,25 @@
         <v>-0.02</v>
       </c>
       <c r="X11" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="Y11">
+        <v>-1.67</v>
+      </c>
+      <c r="Z11">
+        <v>16.61</v>
+      </c>
+      <c r="AA11">
+        <v>2.53</v>
       </c>
       <c r="AC11" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1916,22 +2093,25 @@
       <c r="AG11">
         <v>5.52391529083252</v>
       </c>
-      <c r="AH11" t="s">
-        <v>194</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300274</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1.85</v>
@@ -1949,7 +2129,7 @@
         <v>1351152.74</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1991,10 +2171,25 @@
         <v>0.22</v>
       </c>
       <c r="X12" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="Y12">
+        <v>0.48</v>
+      </c>
+      <c r="Z12">
+        <v>144.24</v>
+      </c>
+      <c r="AA12">
+        <v>3.62</v>
       </c>
       <c r="AC12" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2002,22 +2197,25 @@
       <c r="AG12">
         <v>10.10441589355469</v>
       </c>
-      <c r="AH12" t="s">
-        <v>194</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300277</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>7.99</v>
@@ -2035,7 +2233,7 @@
         <v>51863.1</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -2076,8 +2274,23 @@
       <c r="W13">
         <v>0.27</v>
       </c>
+      <c r="Y13">
+        <v>0.38</v>
+      </c>
+      <c r="Z13">
+        <v>16.35</v>
+      </c>
+      <c r="AA13">
+        <v>4.34</v>
+      </c>
       <c r="AC13" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2085,22 +2298,25 @@
       <c r="AG13">
         <v>-26.16065788269043</v>
       </c>
-      <c r="AH13" t="s">
-        <v>194</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300290</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1.21</v>
@@ -2118,7 +2334,7 @@
         <v>154030.35</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2160,10 +2376,25 @@
         <v>-0.12</v>
       </c>
       <c r="X14" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="Y14">
+        <v>-1.22</v>
+      </c>
+      <c r="Z14">
+        <v>32.28</v>
+      </c>
+      <c r="AA14">
+        <v>1.8</v>
       </c>
       <c r="AC14" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2171,22 +2402,25 @@
       <c r="AG14">
         <v>6.918445587158203</v>
       </c>
-      <c r="AH14" t="s">
-        <v>194</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300324</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0.97</v>
@@ -2204,7 +2438,7 @@
         <v>140450.51</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2246,10 +2480,25 @@
         <v>-0.34</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="Y15">
+        <v>3.54</v>
+      </c>
+      <c r="Z15">
+        <v>7.81</v>
+      </c>
+      <c r="AA15">
+        <v>6.69</v>
       </c>
       <c r="AC15" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2257,22 +2506,25 @@
       <c r="AG15">
         <v>6.629971981048584</v>
       </c>
-      <c r="AH15" t="s">
-        <v>194</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300331</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>2.37</v>
@@ -2290,7 +2542,7 @@
         <v>130626.91</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2332,10 +2584,25 @@
         <v>0.21</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y16">
+        <v>14.66</v>
+      </c>
+      <c r="Z16">
+        <v>40.26</v>
+      </c>
+      <c r="AA16">
+        <v>19.47</v>
       </c>
       <c r="AC16" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2343,22 +2610,25 @@
       <c r="AG16">
         <v>2.161945343017578</v>
       </c>
-      <c r="AH16" t="s">
-        <v>194</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300363</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.59</v>
@@ -2376,7 +2646,7 @@
         <v>79415.06</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2418,10 +2688,25 @@
         <v>0.08</v>
       </c>
       <c r="X17" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="Y17">
+        <v>-0.93</v>
+      </c>
+      <c r="Z17">
+        <v>28.35</v>
+      </c>
+      <c r="AA17">
+        <v>1.8</v>
       </c>
       <c r="AC17" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2429,22 +2714,25 @@
       <c r="AG17">
         <v>0.9193456768989563</v>
       </c>
-      <c r="AH17" t="s">
-        <v>194</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300428</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>4.09</v>
@@ -2462,7 +2750,7 @@
         <v>98409.66</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2503,8 +2791,23 @@
       <c r="W18">
         <v>0.23</v>
       </c>
+      <c r="Y18">
+        <v>-3.7</v>
+      </c>
+      <c r="Z18">
+        <v>25.41</v>
+      </c>
+      <c r="AA18">
+        <v>-0.2</v>
+      </c>
       <c r="AC18" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2512,22 +2815,25 @@
       <c r="AG18">
         <v>2.748605489730835</v>
       </c>
-      <c r="AH18" t="s">
-        <v>194</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300450</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-1.98</v>
@@ -2545,7 +2851,7 @@
         <v>950287.97</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K19">
         <v>13</v>
@@ -2587,10 +2893,25 @@
         <v>-1.26</v>
       </c>
       <c r="X19" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y19">
+        <v>-2.6</v>
+      </c>
+      <c r="Z19">
+        <v>54.98</v>
+      </c>
+      <c r="AA19">
+        <v>0.9</v>
       </c>
       <c r="AC19" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2598,22 +2919,25 @@
       <c r="AG19">
         <v>35.1986083984375</v>
       </c>
-      <c r="AH19" t="s">
-        <v>194</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300457</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-4.42</v>
@@ -2631,7 +2955,7 @@
         <v>194324.83</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20">
         <v>11</v>
@@ -2673,10 +2997,25 @@
         <v>-0.71</v>
       </c>
       <c r="X20" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y20">
+        <v>5.94</v>
+      </c>
+      <c r="Z20">
+        <v>37.9</v>
+      </c>
+      <c r="AA20">
+        <v>14.67</v>
       </c>
       <c r="AC20" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2684,22 +3023,25 @@
       <c r="AG20">
         <v>3.033087253570557</v>
       </c>
-      <c r="AH20" t="s">
-        <v>194</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300469</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1.98</v>
@@ -2717,7 +3059,7 @@
         <v>113936.32</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>19</v>
@@ -2759,10 +3101,25 @@
         <v>-0.05</v>
       </c>
       <c r="X21" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="Y21">
+        <v>10.81</v>
+      </c>
+      <c r="Z21">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="AA21">
+        <v>13.78</v>
       </c>
       <c r="AC21" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2770,22 +3127,25 @@
       <c r="AG21">
         <v>9.567385673522949</v>
       </c>
-      <c r="AH21" t="s">
-        <v>194</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300475</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-0.65</v>
@@ -2803,7 +3163,7 @@
         <v>340581.45</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2845,10 +3205,25 @@
         <v>-0.08</v>
       </c>
       <c r="X22" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="Y22">
+        <v>4.31</v>
+      </c>
+      <c r="Z22">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>6.52</v>
       </c>
       <c r="AC22" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2856,22 +3231,25 @@
       <c r="AG22">
         <v>-1.753548979759216</v>
       </c>
-      <c r="AH22" t="s">
-        <v>194</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300476</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>3.47</v>
@@ -2889,7 +3267,7 @@
         <v>2045020.36</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23">
         <v>70</v>
@@ -2931,10 +3309,25 @@
         <v>-0.22</v>
       </c>
       <c r="X23" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y23">
+        <v>-3.78</v>
+      </c>
+      <c r="Z23">
+        <v>350.99</v>
+      </c>
+      <c r="AA23">
+        <v>2.93</v>
       </c>
       <c r="AC23" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2942,22 +3335,25 @@
       <c r="AG23">
         <v>13.91385269165039</v>
       </c>
-      <c r="AH23" t="s">
-        <v>194</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300478</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>6.53</v>
@@ -2975,7 +3371,7 @@
         <v>56775.39</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -3017,10 +3413,25 @@
         <v>-0.04</v>
       </c>
       <c r="X24" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="Y24">
+        <v>0.19</v>
+      </c>
+      <c r="Z24">
+        <v>27.7</v>
+      </c>
+      <c r="AA24">
+        <v>2.97</v>
       </c>
       <c r="AC24" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -3028,22 +3439,25 @@
       <c r="AG24">
         <v>6.861539363861084</v>
       </c>
-      <c r="AH24" t="s">
-        <v>194</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300503</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>3.94</v>
@@ -3061,7 +3475,7 @@
         <v>82617.89</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3102,8 +3516,23 @@
       <c r="W25">
         <v>0.47</v>
       </c>
+      <c r="Y25">
+        <v>5.95</v>
+      </c>
+      <c r="Z25">
+        <v>36.88</v>
+      </c>
+      <c r="AA25">
+        <v>14.5</v>
+      </c>
       <c r="AC25" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3111,22 +3540,25 @@
       <c r="AG25">
         <v>8.882715225219727</v>
       </c>
-      <c r="AH25" t="s">
-        <v>194</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300528</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-2.48</v>
@@ -3144,7 +3576,7 @@
         <v>165815.27</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26">
         <v>6</v>
@@ -3186,10 +3618,25 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="X26" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y26">
+        <v>-7.38</v>
+      </c>
+      <c r="Z26">
+        <v>30.5</v>
+      </c>
+      <c r="AA26">
+        <v>-2.87</v>
       </c>
       <c r="AC26" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3197,22 +3644,25 @@
       <c r="AG26">
         <v>0.5039764046669006</v>
       </c>
-      <c r="AH26" t="s">
-        <v>194</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300539</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1.59</v>
@@ -3230,7 +3680,7 @@
         <v>71215.3</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -3272,10 +3722,25 @@
         <v>0.82</v>
       </c>
       <c r="X27" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="Y27">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="Z27">
+        <v>41.8</v>
+      </c>
+      <c r="AA27">
+        <v>11.05</v>
       </c>
       <c r="AC27" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3283,22 +3748,25 @@
       <c r="AG27">
         <v>3.905381679534912</v>
       </c>
-      <c r="AH27" t="s">
-        <v>194</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300680</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.45</v>
@@ -3316,7 +3784,7 @@
         <v>133250</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3358,10 +3826,25 @@
         <v>0.96</v>
       </c>
       <c r="X28" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="Y28">
+        <v>6.68</v>
+      </c>
+      <c r="Z28">
+        <v>67.5</v>
+      </c>
+      <c r="AA28">
+        <v>9.65</v>
       </c>
       <c r="AC28" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3369,22 +3852,25 @@
       <c r="AG28">
         <v>1.992159128189087</v>
       </c>
-      <c r="AH28" t="s">
-        <v>194</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300684</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>10.85</v>
@@ -3402,7 +3888,7 @@
         <v>192750.87</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3444,10 +3930,25 @@
         <v>0.28</v>
       </c>
       <c r="X29" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Y29">
+        <v>14.09</v>
+      </c>
+      <c r="Z29">
+        <v>46.9</v>
+      </c>
+      <c r="AA29">
+        <v>20.53</v>
       </c>
       <c r="AC29" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3455,22 +3956,25 @@
       <c r="AG29">
         <v>2.05522084236145</v>
       </c>
-      <c r="AH29" t="s">
-        <v>194</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300701</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-2.92</v>
@@ -3488,7 +3992,7 @@
         <v>36358.9</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -3529,8 +4033,23 @@
       <c r="W30">
         <v>-0.45</v>
       </c>
+      <c r="Y30">
+        <v>-1.29</v>
+      </c>
+      <c r="Z30">
+        <v>15.95</v>
+      </c>
+      <c r="AA30">
+        <v>9.1</v>
+      </c>
       <c r="AC30" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3538,22 +4057,25 @@
       <c r="AG30">
         <v>7.781675815582275</v>
       </c>
-      <c r="AH30" t="s">
-        <v>194</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300727</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>14.29</v>
@@ -3571,7 +4093,7 @@
         <v>105590.32</v>
       </c>
       <c r="J31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K31">
         <v>23</v>
@@ -3612,8 +4134,23 @@
       <c r="W31">
         <v>0.74</v>
       </c>
+      <c r="Y31">
+        <v>-6.47</v>
+      </c>
+      <c r="Z31">
+        <v>46.35</v>
+      </c>
+      <c r="AA31">
+        <v>-0.24</v>
+      </c>
       <c r="AC31" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3621,22 +4158,25 @@
       <c r="AG31">
         <v>-12.84478187561035</v>
       </c>
-      <c r="AH31" t="s">
-        <v>194</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300757</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>5.12</v>
@@ -3654,7 +4194,7 @@
         <v>250633.37</v>
       </c>
       <c r="J32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K32">
         <v>17</v>
@@ -3696,10 +4236,25 @@
         <v>0.33</v>
       </c>
       <c r="X32" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="Y32">
+        <v>-1.8</v>
+      </c>
+      <c r="Z32">
+        <v>299</v>
+      </c>
+      <c r="AA32">
+        <v>1.5</v>
       </c>
       <c r="AC32" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3707,22 +4262,25 @@
       <c r="AG32">
         <v>4.595038890838623</v>
       </c>
-      <c r="AH32" t="s">
-        <v>194</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300803</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>4.27</v>
@@ -3740,7 +4298,7 @@
         <v>714627.38</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K33">
         <v>26</v>
@@ -3781,8 +4339,23 @@
       <c r="W33">
         <v>0.35</v>
       </c>
+      <c r="Y33">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="Z33">
+        <v>179.01</v>
+      </c>
+      <c r="AA33">
+        <v>15.63</v>
+      </c>
       <c r="AC33" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3790,22 +4363,25 @@
       <c r="AG33">
         <v>-3.305588245391846</v>
       </c>
-      <c r="AH33" t="s">
-        <v>194</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300806</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.76</v>
@@ -3823,7 +4399,7 @@
         <v>40368.73</v>
       </c>
       <c r="J34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3864,8 +4440,23 @@
       <c r="W34">
         <v>-0.04</v>
       </c>
+      <c r="Y34">
+        <v>3.36</v>
+      </c>
+      <c r="Z34">
+        <v>27.78</v>
+      </c>
+      <c r="AA34">
+        <v>6.72</v>
+      </c>
       <c r="AC34" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3873,22 +4464,25 @@
       <c r="AG34">
         <v>4.237210750579834</v>
       </c>
-      <c r="AH34" t="s">
-        <v>194</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300814</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.39</v>
@@ -3906,7 +4500,7 @@
         <v>103798.86</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3948,10 +4542,25 @@
         <v>0.9</v>
       </c>
       <c r="X35" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="Y35">
+        <v>-2.15</v>
+      </c>
+      <c r="Z35">
+        <v>53.13</v>
+      </c>
+      <c r="AA35">
+        <v>1.61</v>
       </c>
       <c r="AC35" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3959,22 +4568,25 @@
       <c r="AG35">
         <v>1.44999098777771</v>
       </c>
-      <c r="AH35" t="s">
-        <v>194</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300852</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-2.13</v>
@@ -3992,7 +4604,7 @@
         <v>52332.25</v>
       </c>
       <c r="J36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -4034,10 +4646,25 @@
         <v>0.25</v>
       </c>
       <c r="X36" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="Y36">
+        <v>6.35</v>
+      </c>
+      <c r="Z36">
+        <v>48.86</v>
+      </c>
+      <c r="AA36">
+        <v>8.27</v>
       </c>
       <c r="AC36" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4045,22 +4672,25 @@
       <c r="AG36">
         <v>38.2140998840332</v>
       </c>
-      <c r="AH36" t="s">
-        <v>194</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300857</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>11.27</v>
@@ -4078,7 +4708,7 @@
         <v>500577.38</v>
       </c>
       <c r="J37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K37">
         <v>18</v>
@@ -4120,10 +4750,25 @@
         <v>0.28</v>
       </c>
       <c r="X37" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="Y37">
+        <v>6.76</v>
+      </c>
+      <c r="Z37">
+        <v>167.77</v>
+      </c>
+      <c r="AA37">
+        <v>8.619999999999999</v>
       </c>
       <c r="AC37" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4131,22 +4776,25 @@
       <c r="AG37">
         <v>4.747173309326172</v>
       </c>
-      <c r="AH37" t="s">
-        <v>194</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300859</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.61</v>
@@ -4164,7 +4812,7 @@
         <v>87260.08</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -4206,10 +4854,25 @@
         <v>-0.77</v>
       </c>
       <c r="X38" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Y38">
+        <v>-3.95</v>
+      </c>
+      <c r="Z38">
+        <v>52.48</v>
+      </c>
+      <c r="AA38">
+        <v>4.46</v>
       </c>
       <c r="AC38" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4217,22 +4880,25 @@
       <c r="AG38">
         <v>2.327869176864624</v>
       </c>
-      <c r="AH38" t="s">
-        <v>194</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300918</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>10.37</v>
@@ -4250,7 +4916,7 @@
         <v>146584.64</v>
       </c>
       <c r="J39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4292,10 +4958,25 @@
         <v>0.19</v>
       </c>
       <c r="X39" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y39">
+        <v>-4.35</v>
+      </c>
+      <c r="Z39">
+        <v>26.2</v>
+      </c>
+      <c r="AA39">
+        <v>0.5</v>
       </c>
       <c r="AC39" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4303,22 +4984,25 @@
       <c r="AG39">
         <v>-2.640890836715698</v>
       </c>
-      <c r="AH39" t="s">
-        <v>194</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300953</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>7.55</v>
@@ -4336,7 +5020,7 @@
         <v>190666.01</v>
       </c>
       <c r="J40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K40">
         <v>15</v>
@@ -4378,10 +5062,25 @@
         <v>0.47</v>
       </c>
       <c r="X40" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="Y40">
+        <v>0.01</v>
+      </c>
+      <c r="Z40">
+        <v>181</v>
+      </c>
+      <c r="AA40">
+        <v>5.23</v>
       </c>
       <c r="AC40" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4389,22 +5088,25 @@
       <c r="AG40">
         <v>-0.4899455010890961</v>
       </c>
-      <c r="AH40" t="s">
-        <v>194</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300959</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>20.01</v>
@@ -4422,7 +5124,7 @@
         <v>63622.87</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4464,10 +5166,25 @@
         <v>0.95</v>
       </c>
       <c r="X41" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="Y41">
+        <v>18.98</v>
+      </c>
+      <c r="Z41">
+        <v>82.7</v>
+      </c>
+      <c r="AA41">
+        <v>19.99</v>
       </c>
       <c r="AC41" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4475,22 +5192,25 @@
       <c r="AG41">
         <v>17.56789779663086</v>
       </c>
-      <c r="AH41" t="s">
-        <v>195</v>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300990</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0.05</v>
@@ -4508,7 +5228,7 @@
         <v>49108.2</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4550,10 +5270,25 @@
         <v>-0.02</v>
       </c>
       <c r="X42" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y42">
+        <v>1.38</v>
+      </c>
+      <c r="Z42">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>4.97</v>
       </c>
       <c r="AC42" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4561,22 +5296,25 @@
       <c r="AG42">
         <v>6.032658576965332</v>
       </c>
-      <c r="AH42" t="s">
-        <v>194</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301076</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.93</v>
@@ -4594,7 +5332,7 @@
         <v>153733.5</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -4636,10 +5374,25 @@
         <v>0.58</v>
       </c>
       <c r="X43" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="Y43">
+        <v>1.92</v>
+      </c>
+      <c r="Z43">
+        <v>66.48</v>
+      </c>
+      <c r="AA43">
+        <v>5.76</v>
       </c>
       <c r="AC43" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4647,22 +5400,25 @@
       <c r="AG43">
         <v>4.310150146484375</v>
       </c>
-      <c r="AH43" t="s">
-        <v>194</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301150</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-6.28</v>
@@ -4680,7 +5436,7 @@
         <v>114514.41</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K44">
         <v>11</v>
@@ -4722,10 +5478,25 @@
         <v>-0.39</v>
       </c>
       <c r="X44" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="Y44">
+        <v>-1.6</v>
+      </c>
+      <c r="Z44">
+        <v>42.87</v>
+      </c>
+      <c r="AA44">
+        <v>4.15</v>
       </c>
       <c r="AC44" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4733,22 +5504,25 @@
       <c r="AG44">
         <v>23.04219818115234</v>
       </c>
-      <c r="AH44" t="s">
-        <v>194</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301307</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -4766,7 +5540,7 @@
         <v>101994.68</v>
       </c>
       <c r="J45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4807,8 +5581,23 @@
       <c r="W45">
         <v>0.9</v>
       </c>
+      <c r="Y45">
+        <v>-3.17</v>
+      </c>
+      <c r="Z45">
+        <v>42.12</v>
+      </c>
+      <c r="AA45">
+        <v>4.31</v>
+      </c>
       <c r="AC45" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4816,22 +5605,25 @@
       <c r="AG45">
         <v>3.040399551391602</v>
       </c>
-      <c r="AH45" t="s">
-        <v>195</v>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301377</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1.18</v>
@@ -4849,7 +5641,7 @@
         <v>76618.5</v>
       </c>
       <c r="J46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -4891,10 +5683,25 @@
         <v>0.26</v>
       </c>
       <c r="X46" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Y46">
+        <v>-1.27</v>
+      </c>
+      <c r="Z46">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>0.58</v>
       </c>
       <c r="AC46" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4902,22 +5709,25 @@
       <c r="AG46">
         <v>4.658777236938477</v>
       </c>
-      <c r="AH46" t="s">
-        <v>194</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301389</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -4935,7 +5745,7 @@
         <v>139185.32</v>
       </c>
       <c r="J47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4977,10 +5787,25 @@
         <v>1.02</v>
       </c>
       <c r="X47" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="Y47">
+        <v>-4.38</v>
+      </c>
+      <c r="Z47">
+        <v>70.2</v>
+      </c>
+      <c r="AA47">
+        <v>1.3</v>
       </c>
       <c r="AC47" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4988,22 +5813,25 @@
       <c r="AG47">
         <v>0.62132328748703</v>
       </c>
-      <c r="AH47" t="s">
-        <v>194</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301398</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.08</v>
@@ -5021,7 +5849,7 @@
         <v>50568.18</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -5063,10 +5891,25 @@
         <v>1.19</v>
       </c>
       <c r="X48" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="Y48">
+        <v>3.73</v>
+      </c>
+      <c r="Z48">
+        <v>57.99</v>
+      </c>
+      <c r="AA48">
+        <v>5.76</v>
       </c>
       <c r="AC48" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5074,22 +5917,25 @@
       <c r="AG48">
         <v>-1.148303031921387</v>
       </c>
-      <c r="AH48" t="s">
-        <v>194</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301413</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>16.64</v>
@@ -5107,7 +5953,7 @@
         <v>130382.94</v>
       </c>
       <c r="J49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K49">
         <v>18</v>
@@ -5149,10 +5995,25 @@
         <v>0.92</v>
       </c>
       <c r="X49" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="Y49">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>200.15</v>
+      </c>
+      <c r="AA49">
+        <v>14.33</v>
       </c>
       <c r="AC49" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5160,22 +6021,25 @@
       <c r="AG49">
         <v>11.16245937347412</v>
       </c>
-      <c r="AH49" t="s">
-        <v>194</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301488</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>7.33</v>
@@ -5193,7 +6057,7 @@
         <v>180107.23</v>
       </c>
       <c r="J50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K50">
         <v>15</v>
@@ -5235,10 +6099,25 @@
         <v>-2.66</v>
       </c>
       <c r="X50" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y50">
+        <v>14.22</v>
+      </c>
+      <c r="Z50">
+        <v>222.22</v>
+      </c>
+      <c r="AA50">
+        <v>16.22</v>
       </c>
       <c r="AC50" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5246,22 +6125,25 @@
       <c r="AG50">
         <v>-12.24828433990479</v>
       </c>
-      <c r="AH50" t="s">
-        <v>194</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301489</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>3.18</v>
@@ -5279,7 +6161,7 @@
         <v>69986.8</v>
       </c>
       <c r="J51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K51">
         <v>6</v>
@@ -5321,10 +6203,25 @@
         <v>0.79</v>
       </c>
       <c r="X51" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Y51">
+        <v>-3.32</v>
+      </c>
+      <c r="Z51">
+        <v>227</v>
+      </c>
+      <c r="AA51">
+        <v>1.77</v>
       </c>
       <c r="AC51" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>1</v>
@@ -5332,22 +6229,25 @@
       <c r="AG51">
         <v>3.870458126068115</v>
       </c>
-      <c r="AH51" t="s">
-        <v>195</v>
+      <c r="AH51">
+        <v>1</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301600</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>2.87</v>
@@ -5365,7 +6265,7 @@
         <v>56663.67</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5407,10 +6307,25 @@
         <v>0.58</v>
       </c>
       <c r="X52" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="Y52">
+        <v>0.87</v>
+      </c>
+      <c r="Z52">
+        <v>156</v>
+      </c>
+      <c r="AA52">
+        <v>5.09</v>
       </c>
       <c r="AC52" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5418,22 +6333,25 @@
       <c r="AG52">
         <v>2.889589309692383</v>
       </c>
-      <c r="AH52" t="s">
-        <v>194</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688028</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-4.27</v>
@@ -5451,7 +6369,7 @@
         <v>62226.2</v>
       </c>
       <c r="J53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K53">
         <v>7</v>
@@ -5492,8 +6410,23 @@
       <c r="W53">
         <v>-0.85</v>
       </c>
+      <c r="Y53">
+        <v>-3.06</v>
+      </c>
+      <c r="Z53">
+        <v>43.9</v>
+      </c>
+      <c r="AA53">
+        <v>1.93</v>
+      </c>
       <c r="AC53" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5501,22 +6434,25 @@
       <c r="AG53">
         <v>2.799828290939331</v>
       </c>
-      <c r="AH53" t="s">
-        <v>194</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688041</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>5.75</v>
@@ -5534,7 +6470,7 @@
         <v>1442929.77</v>
       </c>
       <c r="J54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5576,10 +6512,25 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y54">
+        <v>-1.35</v>
+      </c>
+      <c r="Z54">
+        <v>244.97</v>
+      </c>
+      <c r="AA54">
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC54" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5587,22 +6538,25 @@
       <c r="AG54">
         <v>12.44061374664307</v>
       </c>
-      <c r="AH54" t="s">
-        <v>194</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688110</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.99</v>
@@ -5620,7 +6574,7 @@
         <v>289530.01</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5662,10 +6616,25 @@
         <v>-0.06</v>
       </c>
       <c r="X55" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y55">
+        <v>6.69</v>
+      </c>
+      <c r="Z55">
+        <v>129.95</v>
+      </c>
+      <c r="AA55">
+        <v>8.35</v>
       </c>
       <c r="AC55" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5673,22 +6642,25 @@
       <c r="AG55">
         <v>21.04339027404785</v>
       </c>
-      <c r="AH55" t="s">
-        <v>194</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688141</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-0.96</v>
@@ -5706,7 +6678,7 @@
         <v>82274.25</v>
       </c>
       <c r="J56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K56">
         <v>10</v>
@@ -5748,10 +6720,25 @@
         <v>-0.21</v>
       </c>
       <c r="X56" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="Y56">
+        <v>-3.26</v>
+      </c>
+      <c r="Z56">
+        <v>52.64</v>
+      </c>
+      <c r="AA56">
+        <v>2.21</v>
       </c>
       <c r="AC56" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5759,22 +6746,25 @@
       <c r="AG56">
         <v>3.191675424575806</v>
       </c>
-      <c r="AH56" t="s">
-        <v>194</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688147</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-2.1</v>
@@ -5792,7 +6782,7 @@
         <v>49410.98</v>
       </c>
       <c r="J57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K57">
         <v>22</v>
@@ -5833,8 +6823,23 @@
       <c r="W57">
         <v>-0.21</v>
       </c>
+      <c r="Y57">
+        <v>3.02</v>
+      </c>
+      <c r="Z57">
+        <v>50.99</v>
+      </c>
+      <c r="AA57">
+        <v>8.539999999999999</v>
+      </c>
       <c r="AC57" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5842,22 +6847,25 @@
       <c r="AG57">
         <v>-60.73757934570312</v>
       </c>
-      <c r="AH57" t="s">
-        <v>194</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688167</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.5600000000000001</v>
@@ -5875,7 +6883,7 @@
         <v>107523.71</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K58">
         <v>8</v>
@@ -5917,10 +6925,25 @@
         <v>-0.32</v>
       </c>
       <c r="X58" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="Y58">
+        <v>6.65</v>
+      </c>
+      <c r="Z58">
+        <v>181.5</v>
+      </c>
+      <c r="AA58">
+        <v>12.45</v>
       </c>
       <c r="AC58" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5928,22 +6951,25 @@
       <c r="AG58">
         <v>-0.1175078451633453</v>
       </c>
-      <c r="AH58" t="s">
-        <v>194</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688195</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-0.01</v>
@@ -5961,7 +6987,7 @@
         <v>134104.92</v>
       </c>
       <c r="J59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K59">
         <v>22</v>
@@ -6003,10 +7029,25 @@
         <v>-0.44</v>
       </c>
       <c r="X59" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="Y59">
+        <v>-0.84</v>
+      </c>
+      <c r="Z59">
+        <v>116.6</v>
+      </c>
+      <c r="AA59">
+        <v>6.01</v>
       </c>
       <c r="AC59" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -6014,22 +7055,25 @@
       <c r="AG59">
         <v>-1.687939167022705</v>
       </c>
-      <c r="AH59" t="s">
-        <v>194</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688202</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-2.81</v>
@@ -6047,7 +7091,7 @@
         <v>54348.37</v>
       </c>
       <c r="J60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -6089,10 +7133,25 @@
         <v>-0.34</v>
       </c>
       <c r="X60" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="Y60">
+        <v>-5.41</v>
+      </c>
+      <c r="Z60">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>2.68</v>
       </c>
       <c r="AC60" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6100,22 +7159,25 @@
       <c r="AG60">
         <v>5.076125621795654</v>
       </c>
-      <c r="AH60" t="s">
-        <v>194</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688228</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-1.47</v>
@@ -6133,7 +7195,7 @@
         <v>75963.98</v>
       </c>
       <c r="J61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -6175,10 +7237,25 @@
         <v>-0.01</v>
       </c>
       <c r="X61" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="Y61">
+        <v>0.55</v>
+      </c>
+      <c r="Z61">
+        <v>185</v>
+      </c>
+      <c r="AA61">
+        <v>2.61</v>
       </c>
       <c r="AC61" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6186,22 +7263,25 @@
       <c r="AG61">
         <v>6.369993686676025</v>
       </c>
-      <c r="AH61" t="s">
-        <v>194</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688256</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-0.49</v>
@@ -6219,7 +7299,7 @@
         <v>1785001.16</v>
       </c>
       <c r="J62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -6261,10 +7341,25 @@
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="Y62">
+        <v>0.13</v>
+      </c>
+      <c r="Z62">
+        <v>1470.02</v>
+      </c>
+      <c r="AA62">
+        <v>2.58</v>
       </c>
       <c r="AC62" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6272,22 +7367,25 @@
       <c r="AG62">
         <v>-14.86969566345215</v>
       </c>
-      <c r="AH62" t="s">
-        <v>194</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688325</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-4.38</v>
@@ -6305,7 +7403,7 @@
         <v>30756.86</v>
       </c>
       <c r="J63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6347,10 +7445,25 @@
         <v>-0.6</v>
       </c>
       <c r="X63" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Y63">
+        <v>0.89</v>
+      </c>
+      <c r="Z63">
+        <v>79.58</v>
+      </c>
+      <c r="AA63">
+        <v>4.03</v>
       </c>
       <c r="AC63" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6358,22 +7471,25 @@
       <c r="AG63">
         <v>4.033821105957031</v>
       </c>
-      <c r="AH63" t="s">
-        <v>194</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688347</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>0.68</v>
@@ -6391,7 +7507,7 @@
         <v>165734.53</v>
       </c>
       <c r="J64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6432,8 +7548,23 @@
       <c r="W64">
         <v>-0.5</v>
       </c>
+      <c r="Y64">
+        <v>4.93</v>
+      </c>
+      <c r="Z64">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>5.45</v>
+      </c>
       <c r="AC64" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6441,22 +7572,25 @@
       <c r="AG64">
         <v>14.60951900482178</v>
       </c>
-      <c r="AH64" t="s">
-        <v>194</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688388</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>5.54</v>
@@ -6474,7 +7608,7 @@
         <v>115900.54</v>
       </c>
       <c r="J65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K65">
         <v>11</v>
@@ -6516,10 +7650,25 @@
         <v>0.96</v>
       </c>
       <c r="X65" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="Y65">
+        <v>-0.58</v>
+      </c>
+      <c r="Z65">
+        <v>36.36</v>
+      </c>
+      <c r="AA65">
+        <v>6.04</v>
       </c>
       <c r="AC65" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6527,22 +7676,25 @@
       <c r="AG65">
         <v>1.138139724731445</v>
       </c>
-      <c r="AH65" t="s">
-        <v>194</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688411</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>4.59</v>
@@ -6560,7 +7712,7 @@
         <v>84122.19</v>
       </c>
       <c r="J66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K66">
         <v>11</v>
@@ -6602,10 +7754,25 @@
         <v>-0.23</v>
       </c>
       <c r="X66" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="Y66">
+        <v>0.67</v>
+      </c>
+      <c r="Z66">
+        <v>218</v>
+      </c>
+      <c r="AA66">
+        <v>5.11</v>
       </c>
       <c r="AC66" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6613,22 +7780,25 @@
       <c r="AG66">
         <v>-6.672547340393066</v>
       </c>
-      <c r="AH66" t="s">
-        <v>194</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688521</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-1.31</v>
@@ -6646,7 +7816,7 @@
         <v>482450.69</v>
       </c>
       <c r="J67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K67">
         <v>10</v>
@@ -6688,10 +7858,25 @@
         <v>-0.05</v>
       </c>
       <c r="X67" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="Y67">
+        <v>-4.31</v>
+      </c>
+      <c r="Z67">
+        <v>180.55</v>
+      </c>
+      <c r="AA67">
+        <v>0.91</v>
       </c>
       <c r="AC67" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6699,22 +7884,25 @@
       <c r="AG67">
         <v>0.6301131248474121</v>
       </c>
-      <c r="AH67" t="s">
-        <v>194</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688627</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-2.34</v>
@@ -6732,7 +7920,7 @@
         <v>39991.36</v>
       </c>
       <c r="J68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6773,8 +7961,23 @@
       <c r="W68">
         <v>-0.04</v>
       </c>
+      <c r="Y68">
+        <v>15.16</v>
+      </c>
+      <c r="Z68">
+        <v>146.32</v>
+      </c>
+      <c r="AA68">
+        <v>18.54</v>
+      </c>
       <c r="AC68" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6782,22 +7985,25 @@
       <c r="AG68">
         <v>1.206741333007812</v>
       </c>
-      <c r="AH68" t="s">
-        <v>194</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688629</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>1.09</v>
@@ -6815,7 +8021,7 @@
         <v>122621.31</v>
       </c>
       <c r="J69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K69">
         <v>4</v>
@@ -6857,10 +8063,25 @@
         <v>0.52</v>
       </c>
       <c r="X69" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="Y69">
+        <v>-0.44</v>
+      </c>
+      <c r="Z69">
+        <v>90.14</v>
+      </c>
+      <c r="AA69">
+        <v>2.51</v>
       </c>
       <c r="AC69" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6868,22 +8089,25 @@
       <c r="AG69">
         <v>0.7901119589805603</v>
       </c>
-      <c r="AH69" t="s">
-        <v>194</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688766</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>20</v>
@@ -6901,7 +8125,7 @@
         <v>219752.93</v>
       </c>
       <c r="J70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6942,8 +8166,23 @@
       <c r="W70">
         <v>0.95</v>
       </c>
+      <c r="Y70">
+        <v>-0.46</v>
+      </c>
+      <c r="Z70">
+        <v>114.44</v>
+      </c>
+      <c r="AA70">
+        <v>8.369999999999999</v>
+      </c>
       <c r="AC70" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
       </c>
       <c r="AF70">
         <v>1</v>
@@ -6951,8 +8190,11 @@
       <c r="AG70">
         <v>12.56118392944336</v>
       </c>
-      <c r="AH70" t="s">
-        <v>195</v>
+      <c r="AH70">
+        <v>1</v>
+      </c>
+      <c r="AI70">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
